--- a/TelegramBot/Recommend.xlsx
+++ b/TelegramBot/Recommend.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\Github\FurryNovelsBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FC3AD4-380B-4581-B0C3-490C33F868E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{424D721D-5C4F-4EAD-AAEA-ADFB76D0527B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{3F64C0BE-66BB-4BC7-9B1C-395B84D96904}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10200" windowHeight="10920" activeTab="2" xr2:uid="{3F64C0BE-66BB-4BC7-9B1C-395B84D96904}"/>
   </bookViews>
   <sheets>
     <sheet name="阅读量+点赞率" sheetId="2" r:id="rId1"/>
     <sheet name="点赞率" sheetId="4" r:id="rId2"/>
-    <sheet name="和" sheetId="8" r:id="rId3"/>
+    <sheet name="和" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,28 +113,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -166,7 +145,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -195,13 +195,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -529,381 +522,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A19A354-E9F7-4C98-AA14-88F743567038}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="5.5" customWidth="1"/>
+    <col min="1" max="22" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="I1" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="K1" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="M1" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="O1" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="P1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="Q1" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="R1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="S1" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="T1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="U1" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="V1" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
+        <v>-6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-5.5</v>
+      </c>
+      <c r="D2" s="2">
         <v>-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="E2" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="F2" s="2">
         <v>-4</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="H2" s="2">
         <v>-3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="I2" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="J2" s="2">
         <v>-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="K2" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="L2" s="2">
         <v>-1</v>
       </c>
-      <c r="G2" s="2">
+      <c r="M2" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="O2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="Q2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="R2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="S2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="T2" s="2">
         <v>3</v>
       </c>
-      <c r="K2" s="2">
+      <c r="U2" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="V2" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>500</v>
       </c>
       <c r="B3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-4.5</v>
+      </c>
+      <c r="D3" s="2">
         <v>-4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="E3" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="F3" s="2">
         <v>-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="G3" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="H3" s="2">
         <v>-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="I3" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="J3" s="2">
         <v>-1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="K3" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="L3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="M3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="O3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="Q3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="R3" s="2">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="S3" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="T3" s="2">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
+      <c r="U3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="V3" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="2">
+        <v>-4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-3.5</v>
+      </c>
+      <c r="D4" s="2">
         <v>-3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="F4" s="2">
         <v>-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="G4" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="H4" s="2">
         <v>-1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="I4" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="J4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="K4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="M4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="O4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="2">
+      <c r="Q4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="R4" s="2">
         <v>4</v>
       </c>
-      <c r="J4" s="2">
+      <c r="S4" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="T4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="U4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="V4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1500</v>
       </c>
       <c r="B5" s="2">
+        <v>-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="D5" s="2">
         <v>-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="F5" s="2">
         <v>-1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="G5" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="I5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="K5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="M5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="N5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="O5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="I5" s="2">
+      <c r="Q5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="R5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="S5" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="T5" s="2">
         <v>6</v>
       </c>
-      <c r="K5" s="2">
+      <c r="U5" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="V5" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
       <c r="B6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1.5</v>
+      </c>
+      <c r="D6" s="2">
         <v>-1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="G6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="I6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="K6" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="M6" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="N6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="O6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="Q6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="R6" s="2">
         <v>6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="S6" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="T6" s="2">
         <v>7</v>
       </c>
-      <c r="K6" s="2">
+      <c r="U6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="V6" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2500</v>
       </c>
       <c r="B7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="G7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="M7" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="N7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="O7" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="P7" s="2">
         <v>6</v>
       </c>
-      <c r="I7" s="2">
+      <c r="Q7" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="R7" s="2">
         <v>7</v>
       </c>
-      <c r="J7" s="2">
+      <c r="S7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="T7" s="2">
         <v>8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="U7" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="V7" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3000</v>
       </c>
       <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="2">
+      <c r="G8" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
+      <c r="I8" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="2">
+      <c r="K8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L8" s="2">
         <v>5</v>
       </c>
-      <c r="G8" s="2">
+      <c r="M8" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="2">
+      <c r="O8" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="P8" s="2">
         <v>7</v>
       </c>
-      <c r="I8" s="2">
+      <c r="Q8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="R8" s="2">
         <v>8</v>
       </c>
-      <c r="J8" s="2">
+      <c r="S8" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="T8" s="2">
         <v>9</v>
       </c>
-      <c r="K8" s="2">
+      <c r="U8" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="V8" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3500</v>
       </c>
       <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2">
+      <c r="G9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="2">
+      <c r="I9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="K9" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L9" s="2">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="M9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="N9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="2">
+      <c r="O9" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="I9" s="2">
+      <c r="Q9" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="R9" s="2">
         <v>9</v>
       </c>
-      <c r="J9" s="2">
+      <c r="S9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="T9" s="2">
         <v>10</v>
       </c>
-      <c r="K9" s="2">
+      <c r="U9" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="V9" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4000</v>
       </c>
       <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
+      <c r="G10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="I10" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="J10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="2">
+      <c r="K10" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L10" s="2">
         <v>7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="M10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="N10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="2">
+      <c r="O10" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="P10" s="2">
         <v>9</v>
       </c>
-      <c r="I10" s="2">
+      <c r="Q10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="R10" s="2">
         <v>10</v>
       </c>
-      <c r="J10" s="2">
+      <c r="S10" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="T10" s="2">
         <v>11</v>
       </c>
-      <c r="K10" s="2">
+      <c r="U10" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="V10" s="2">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:K10">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="B2:V10">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:K10">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K10">
+  <conditionalFormatting sqref="A1:V10">
     <cfRule type="expression" dxfId="11" priority="4">
       <formula>A$1=5</formula>
     </cfRule>
@@ -917,475 +1235,901 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6CB88D-83D5-49FE-8CD7-7EB23CACDEBA}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="5.5" customWidth="1"/>
+    <col min="1" max="22" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="I1" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="K1" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="M1" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="O1" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="P1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="Q1" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="R1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="S1" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="T1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="U1" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="V1" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>(B$1-1)/2</f>
+        <f t="shared" ref="B2:G10" si="0">(B$1-3)/2</f>
+        <v>-1.5</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(H$1-3)/2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:K2" si="0">(C$1-1)/2</f>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:V2" si="1">(I$1-3)/2</f>
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" si="0"/>
+      <c r="K2" s="2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" si="0"/>
+      <c r="M2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F2" s="2">
-        <f t="shared" si="0"/>
+      <c r="O2" s="2">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G2" s="2">
-        <f t="shared" si="0"/>
+      <c r="Q2" s="2">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="H2" s="2">
-        <f t="shared" si="0"/>
+      <c r="S2" s="2">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I2" s="2">
-        <f t="shared" si="0"/>
+      <c r="U2" s="2">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="V2" s="2">
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="J2" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K2" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>500</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:K10" si="1">(B$1-1)/2</f>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:V10" si="2">(H$1-3)/2</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" si="1"/>
+      <c r="I3" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" si="1"/>
+      <c r="K3" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" si="1"/>
+      <c r="M3" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" si="1"/>
+      <c r="O3" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q3" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" si="1"/>
+      <c r="S3" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" si="1"/>
+      <c r="U3" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J3" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="1"/>
+      <c r="I4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="1"/>
+      <c r="M4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="1"/>
+      <c r="O4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
+      <c r="S4" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
+      <c r="U4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V4" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1500</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="1"/>
+      <c r="I5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="1"/>
+      <c r="M5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="1"/>
+      <c r="O5" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
+      <c r="S5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
+      <c r="U5" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V5" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="1"/>
+      <c r="I6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
+      <c r="M6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="1"/>
+      <c r="O6" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
+      <c r="S6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
+      <c r="U6" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2500</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
+      <c r="I7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
+      <c r="M7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
+      <c r="O7" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="S7" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
+      <c r="U7" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3000</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="1"/>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="1"/>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
+      <c r="O8" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
+      <c r="S8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
+      <c r="U8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3500</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="1"/>
+      <c r="I9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="1"/>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
+      <c r="O9" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
+      <c r="S9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
+      <c r="U9" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4000</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
+      <c r="I10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="1"/>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
+      <c r="O10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
+      <c r="S10" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
+      <c r="U10" s="2">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="2"/>
         <v>3.5</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:K10">
+  <conditionalFormatting sqref="B2:V10">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:K10">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="A2:V10">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K10">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="A1:V10">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>A$1=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$A1=2000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1394,387 +2138,722 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6011DA13-0FC4-479F-94A6-9210B84498DD}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643DC864-053A-47D5-BC08-8D758277E283}">
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="5.5" customWidth="1"/>
+    <col min="1" max="22" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E1" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="G1" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="I1" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J1" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="K1" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="M1" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="N1" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="O1" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="P1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="Q1" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="R1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="S1" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="T1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="U1" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="V1" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>-5</v>
+        <v>-7.5</v>
       </c>
       <c r="C2" s="2">
-        <v>-3.5</v>
+        <v>-6.75</v>
       </c>
       <c r="D2" s="2">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.5</v>
+        <v>-5.25</v>
       </c>
       <c r="F2" s="2">
-        <v>1</v>
+        <v>-4.5</v>
       </c>
       <c r="G2" s="2">
-        <v>2.5</v>
+        <v>-3.75</v>
       </c>
       <c r="H2" s="2">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="I2" s="2">
-        <v>5.5</v>
+        <v>-2.25</v>
       </c>
       <c r="J2" s="2">
-        <v>7</v>
+        <v>-1.5</v>
       </c>
       <c r="K2" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>-0.75</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="T2" s="2">
+        <v>6</v>
+      </c>
+      <c r="U2" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="V2" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>500</v>
       </c>
       <c r="B3" s="2">
-        <v>-4</v>
+        <v>-6.5</v>
       </c>
       <c r="C3" s="2">
-        <v>-2.5</v>
+        <v>-5.75</v>
       </c>
       <c r="D3" s="2">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E3" s="2">
-        <v>0.5</v>
+        <v>-4.25</v>
       </c>
       <c r="F3" s="2">
-        <v>2</v>
+        <v>-3.5</v>
       </c>
       <c r="G3" s="2">
-        <v>3.5</v>
+        <v>-2.75</v>
       </c>
       <c r="H3" s="2">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="I3" s="2">
-        <v>6.5</v>
+        <v>-1.25</v>
       </c>
       <c r="J3" s="2">
-        <v>8</v>
+        <v>-0.5</v>
       </c>
       <c r="K3" s="2">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3.25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="T3" s="2">
+        <v>7</v>
+      </c>
+      <c r="U3" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="V3" s="2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
       <c r="B4" s="2">
-        <v>-3</v>
+        <v>-5.5</v>
       </c>
       <c r="C4" s="2">
-        <v>-1.5</v>
+        <v>-4.75</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E4" s="2">
-        <v>1.5</v>
+        <v>-3.25</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>-2.5</v>
       </c>
       <c r="G4" s="2">
-        <v>4.5</v>
+        <v>-1.75</v>
       </c>
       <c r="H4" s="2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="2">
-        <v>7.5</v>
+        <v>-0.25</v>
       </c>
       <c r="J4" s="2">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="K4" s="2">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1.25</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="R4" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="T4" s="2">
+        <v>8</v>
+      </c>
+      <c r="U4" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1500</v>
       </c>
       <c r="B5" s="2">
-        <v>-2</v>
+        <v>-4.5</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.5</v>
+        <v>-3.75</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E5" s="2">
-        <v>2.5</v>
+        <v>-2.25</v>
       </c>
       <c r="F5" s="2">
-        <v>4</v>
+        <v>-1.5</v>
       </c>
       <c r="G5" s="2">
-        <v>5.5</v>
+        <v>-0.75</v>
       </c>
       <c r="H5" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>8.5</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="2">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="K5" s="2">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2.25</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="N5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="P5" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="R5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="T5" s="2">
+        <v>9</v>
+      </c>
+      <c r="U5" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="V5" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
       <c r="B6" s="2">
-        <v>-1</v>
+        <v>-3.5</v>
       </c>
       <c r="C6" s="2">
-        <v>0.5</v>
+        <v>-2.75</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E6" s="2">
-        <v>3.5</v>
+        <v>-1.25</v>
       </c>
       <c r="F6" s="2">
-        <v>5</v>
+        <v>-0.5</v>
       </c>
       <c r="G6" s="2">
-        <v>6.5</v>
+        <v>0.25</v>
       </c>
       <c r="H6" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2">
-        <v>9.5</v>
+        <v>1.75</v>
       </c>
       <c r="J6" s="2">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="K6" s="2">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>3.25</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>4.75</v>
+      </c>
+      <c r="N6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="P6" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="R6" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="T6" s="2">
+        <v>10</v>
+      </c>
+      <c r="U6" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="V6" s="2">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2500</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="C7" s="2">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="2">
-        <v>4.5</v>
+        <v>-0.25</v>
       </c>
       <c r="F7" s="2">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="G7" s="2">
-        <v>7.5</v>
+        <v>1.25</v>
       </c>
       <c r="H7" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2">
-        <v>10.5</v>
+        <v>2.75</v>
       </c>
       <c r="J7" s="2">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="K7" s="2">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>4.25</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="N7" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>7.25</v>
+      </c>
+      <c r="P7" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="R7" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="S7" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="T7" s="2">
+        <v>11</v>
+      </c>
+      <c r="U7" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="V7" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3000</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>-1.5</v>
       </c>
       <c r="C8" s="2">
-        <v>2.5</v>
+        <v>-0.75</v>
       </c>
       <c r="D8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="2">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="G8" s="2">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>11.5</v>
+        <v>3.75</v>
       </c>
       <c r="J8" s="2">
-        <v>13</v>
+        <v>4.5</v>
       </c>
       <c r="K8" s="2">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>5.25</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="P8" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9.75</v>
+      </c>
+      <c r="R8" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="T8" s="2">
+        <v>12</v>
+      </c>
+      <c r="U8" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="V8" s="2">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3500</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="C9" s="2">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="D9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>6.5</v>
+        <v>1.75</v>
       </c>
       <c r="F9" s="2">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="G9" s="2">
-        <v>9.5</v>
+        <v>3.25</v>
       </c>
       <c r="H9" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2">
-        <v>12.5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" s="2">
-        <v>14</v>
+        <v>5.5</v>
       </c>
       <c r="K9" s="2">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>6.25</v>
+      </c>
+      <c r="L9" s="2">
+        <v>7</v>
+      </c>
+      <c r="M9" s="2">
+        <v>7.75</v>
+      </c>
+      <c r="N9" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="O9" s="2">
+        <v>9.25</v>
+      </c>
+      <c r="P9" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="R9" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>12.25</v>
+      </c>
+      <c r="T9" s="2">
+        <v>13</v>
+      </c>
+      <c r="U9" s="2">
+        <v>13.75</v>
+      </c>
+      <c r="V9" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4000</v>
       </c>
       <c r="B10" s="2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="2">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="D10" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="F10" s="2">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="G10" s="2">
-        <v>10.5</v>
+        <v>4.25</v>
       </c>
       <c r="H10" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I10" s="2">
-        <v>13.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" s="2">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="K10" s="2">
-        <v>16.5</v>
+        <v>7.25</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>10.25</v>
+      </c>
+      <c r="P10" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="R10" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>13.25</v>
+      </c>
+      <c r="T10" s="2">
+        <v>14</v>
+      </c>
+      <c r="U10" s="2">
+        <v>14.75</v>
+      </c>
+      <c r="V10" s="2">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:K10">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="A2:A10">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A10 B1:V1">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>A$1=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>$A1=2000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:V10">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:K10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:V10">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:K10">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>A$1=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$A1=2000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
